--- a/biology/Zoologie/Alosa_fallax/Alosa_fallax.xlsx
+++ b/biology/Zoologie/Alosa_fallax/Alosa_fallax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alose feinte (Alosa fallax) est un poisson de la famille des Clupeidae. On le trouve dans les îles Britanniques, l'Allemagne, la France (Atlantique et Méditerranée), le Portugal, l'Algérie et le Maroc.
 Il mesure de 30 à 50 cm à l'âge adulte et se nourrit de petits poissons et de crustacés pélagiques.
